--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H2">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I2">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J2">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>30.2538868150534</v>
+        <v>293.2861308303849</v>
       </c>
       <c r="R2">
-        <v>30.2538868150534</v>
+        <v>2639.575177473464</v>
       </c>
       <c r="S2">
-        <v>0.001515996403231603</v>
+        <v>0.01159385011621311</v>
       </c>
       <c r="T2">
-        <v>0.001515996403231603</v>
+        <v>0.01159385011621311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H3">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I3">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J3">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>171.3698847639008</v>
+        <v>867.6417612006759</v>
       </c>
       <c r="R3">
-        <v>171.3698847639008</v>
+        <v>7808.775850806084</v>
       </c>
       <c r="S3">
-        <v>0.008587198415610562</v>
+        <v>0.03429861652662112</v>
       </c>
       <c r="T3">
-        <v>0.008587198415610562</v>
+        <v>0.03429861652662112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H4">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I4">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J4">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>13.58203132788461</v>
+        <v>77.22351503566698</v>
       </c>
       <c r="R4">
-        <v>13.58203132788461</v>
+        <v>695.0116353210029</v>
       </c>
       <c r="S4">
-        <v>0.0006805839781025069</v>
+        <v>0.003052711208115185</v>
       </c>
       <c r="T4">
-        <v>0.0006805839781025069</v>
+        <v>0.003052711208115185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H5">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I5">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J5">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>19.75773270158018</v>
+        <v>101.284911642208</v>
       </c>
       <c r="R5">
-        <v>19.75773270158018</v>
+        <v>911.5642047798718</v>
       </c>
       <c r="S5">
-        <v>0.0009900430941224868</v>
+        <v>0.004003878674006463</v>
       </c>
       <c r="T5">
-        <v>0.0009900430941224868</v>
+        <v>0.004003878674006462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H6">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I6">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J6">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>4.386927018944329</v>
+        <v>22.205184299067</v>
       </c>
       <c r="R6">
-        <v>4.386927018944329</v>
+        <v>199.846658691603</v>
       </c>
       <c r="S6">
-        <v>0.0002198251623870698</v>
+        <v>0.0008777898151452577</v>
       </c>
       <c r="T6">
-        <v>0.0002198251623870698</v>
+        <v>0.0008777898151452577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H7">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I7">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J7">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N7">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q7">
-        <v>32.40734037996113</v>
+        <v>182.236061287973</v>
       </c>
       <c r="R7">
-        <v>32.40734037996113</v>
+        <v>1640.124551591757</v>
       </c>
       <c r="S7">
-        <v>0.001623904120308869</v>
+        <v>0.007203946447654161</v>
       </c>
       <c r="T7">
-        <v>0.001623904120308869</v>
+        <v>0.007203946447654161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H8">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I8">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J8">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N8">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O8">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P8">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q8">
-        <v>1808.931843867832</v>
+        <v>3539.965133482764</v>
       </c>
       <c r="R8">
-        <v>1808.931843867832</v>
+        <v>31859.68620134487</v>
       </c>
       <c r="S8">
-        <v>0.09064402817922371</v>
+        <v>0.1399378315572483</v>
       </c>
       <c r="T8">
-        <v>0.09064402817922371</v>
+        <v>0.1399378315572483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H9">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I9">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J9">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N9">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q9">
-        <v>10246.49968198916</v>
+        <v>10472.4405968595</v>
       </c>
       <c r="R9">
-        <v>10246.49968198916</v>
+        <v>94251.96537173551</v>
       </c>
       <c r="S9">
-        <v>0.5134433389854645</v>
+        <v>0.4139844809134614</v>
       </c>
       <c r="T9">
-        <v>0.5134433389854645</v>
+        <v>0.4139844809134613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H10">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I10">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J10">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N10">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q10">
-        <v>812.0929758088537</v>
+        <v>932.0882304841726</v>
       </c>
       <c r="R10">
-        <v>812.0929758088537</v>
+        <v>8388.794074357553</v>
       </c>
       <c r="S10">
-        <v>0.04069328473203977</v>
+        <v>0.03684624025255894</v>
       </c>
       <c r="T10">
-        <v>0.04069328473203977</v>
+        <v>0.03684624025255893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H11">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I11">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J11">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N11">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q11">
-        <v>1181.348765697566</v>
+        <v>1222.509413405077</v>
       </c>
       <c r="R11">
-        <v>1181.348765697566</v>
+        <v>11002.58472064569</v>
       </c>
       <c r="S11">
-        <v>0.0591963766741038</v>
+        <v>0.04832683654200831</v>
       </c>
       <c r="T11">
-        <v>0.0591963766741038</v>
+        <v>0.0483268365420083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H12">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I12">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J12">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N12">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q12">
-        <v>262.3018995808512</v>
+        <v>268.016690658706</v>
       </c>
       <c r="R12">
-        <v>262.3018995808512</v>
+        <v>2412.150215928354</v>
       </c>
       <c r="S12">
-        <v>0.01314372393723407</v>
+        <v>0.01059492766106131</v>
       </c>
       <c r="T12">
-        <v>0.01314372393723407</v>
+        <v>0.01059492766106131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H13">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I13">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J13">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N13">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q13">
-        <v>1937.690530368703</v>
+        <v>2199.590213134681</v>
       </c>
       <c r="R13">
-        <v>1937.690530368703</v>
+        <v>19796.31191821213</v>
       </c>
       <c r="S13">
-        <v>0.09709601587962793</v>
+        <v>0.08695167131145745</v>
       </c>
       <c r="T13">
-        <v>0.09709601587962793</v>
+        <v>0.08695167131145745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H14">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I14">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J14">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N14">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O14">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P14">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q14">
-        <v>67.51046173860068</v>
+        <v>144.4437908304905</v>
       </c>
       <c r="R14">
-        <v>67.51046173860068</v>
+        <v>1299.994117474415</v>
       </c>
       <c r="S14">
-        <v>0.00338289152074501</v>
+        <v>0.005709985863855406</v>
       </c>
       <c r="T14">
-        <v>0.00338289152074501</v>
+        <v>0.005709985863855405</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H15">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I15">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J15">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N15">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q15">
-        <v>382.405742416714</v>
+        <v>427.3146661106449</v>
       </c>
       <c r="R15">
-        <v>382.405742416714</v>
+        <v>3845.831994995804</v>
       </c>
       <c r="S15">
-        <v>0.0191620248209032</v>
+        <v>0.01689211207266948</v>
       </c>
       <c r="T15">
-        <v>0.0191620248209032</v>
+        <v>0.01689211207266948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H16">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I16">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J16">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N16">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q16">
-        <v>30.30781505526735</v>
+        <v>38.03267894538811</v>
       </c>
       <c r="R16">
-        <v>30.30781505526735</v>
+        <v>342.294110508493</v>
       </c>
       <c r="S16">
-        <v>0.001518698701243648</v>
+        <v>0.001503464135731307</v>
       </c>
       <c r="T16">
-        <v>0.001518698701243648</v>
+        <v>0.001503464135731307</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H17">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I17">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J17">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N17">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q17">
-        <v>44.08867084568598</v>
+        <v>49.88294724373688</v>
       </c>
       <c r="R17">
-        <v>44.08867084568598</v>
+        <v>448.9465251936319</v>
       </c>
       <c r="S17">
-        <v>0.002209245603181979</v>
+        <v>0.001971915317173037</v>
       </c>
       <c r="T17">
-        <v>0.002209245603181979</v>
+        <v>0.001971915317173037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H18">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I18">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J18">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N18">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q18">
-        <v>9.789270068767259</v>
+        <v>10.93608138634367</v>
       </c>
       <c r="R18">
-        <v>9.789270068767259</v>
+        <v>98.424732477093</v>
       </c>
       <c r="S18">
-        <v>0.0004905319539679702</v>
+        <v>0.0004323125955291193</v>
       </c>
       <c r="T18">
-        <v>0.0004905319539679702</v>
+        <v>0.0004323125955291193</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H19">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I19">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J19">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N19">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q19">
-        <v>72.31581601880576</v>
+        <v>89.75149095500744</v>
       </c>
       <c r="R19">
-        <v>72.31581601880576</v>
+        <v>807.763418595067</v>
       </c>
       <c r="S19">
-        <v>0.003623683715466243</v>
+        <v>0.003547952748030896</v>
       </c>
       <c r="T19">
-        <v>0.003623683715466243</v>
+        <v>0.003547952748030896</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H20">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I20">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J20">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N20">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O20">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P20">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q20">
-        <v>9.659085137417339</v>
+        <v>135.3815978673461</v>
       </c>
       <c r="R20">
-        <v>9.659085137417339</v>
+        <v>1218.434380806115</v>
       </c>
       <c r="S20">
-        <v>0.0004840084983575251</v>
+        <v>0.005351749670955919</v>
       </c>
       <c r="T20">
-        <v>0.0004840084983575251</v>
+        <v>0.005351749670955918</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H21">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I21">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J21">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N21">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P21">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q21">
-        <v>54.71284787448538</v>
+        <v>400.5055666124137</v>
       </c>
       <c r="R21">
-        <v>54.71284787448538</v>
+        <v>3604.550099511724</v>
       </c>
       <c r="S21">
-        <v>0.002741614031126972</v>
+        <v>0.01583232557525447</v>
       </c>
       <c r="T21">
-        <v>0.002741614031126972</v>
+        <v>0.01583232557525446</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H22">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I22">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J22">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N22">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O22">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P22">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q22">
-        <v>4.336302232407071</v>
+        <v>35.64656408695922</v>
       </c>
       <c r="R22">
-        <v>4.336302232407071</v>
+        <v>320.8190767826329</v>
       </c>
       <c r="S22">
-        <v>0.0002172883976145294</v>
+        <v>0.001409138986600091</v>
       </c>
       <c r="T22">
-        <v>0.0002172883976145294</v>
+        <v>0.00140913898660009</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H23">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I23">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J23">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N23">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O23">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P23">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q23">
-        <v>6.308003446087487</v>
+        <v>46.75336381966576</v>
       </c>
       <c r="R23">
-        <v>6.308003446087487</v>
+        <v>420.7802743769919</v>
       </c>
       <c r="S23">
-        <v>0.0003160886597580242</v>
+        <v>0.001848200223513018</v>
       </c>
       <c r="T23">
-        <v>0.0003160886597580242</v>
+        <v>0.001848200223513018</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H24">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I24">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J24">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N24">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O24">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P24">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q24">
-        <v>1.40060355968992</v>
+        <v>10.24996757547033</v>
       </c>
       <c r="R24">
-        <v>1.40060355968992</v>
+        <v>92.249708179233</v>
       </c>
       <c r="S24">
-        <v>7.018304695272428E-05</v>
+        <v>0.0004051899332218121</v>
       </c>
       <c r="T24">
-        <v>7.018304695272428E-05</v>
+        <v>0.0004051899332218121</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H25">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I25">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J25">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N25">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O25">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P25">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q25">
-        <v>10.34661303920644</v>
+        <v>84.12061319219188</v>
       </c>
       <c r="R25">
-        <v>10.34661303920644</v>
+        <v>757.0855187297269</v>
       </c>
       <c r="S25">
-        <v>0.0005184599337253285</v>
+        <v>0.003325359362452236</v>
       </c>
       <c r="T25">
-        <v>0.0005184599337253285</v>
+        <v>0.003325359362452236</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H26">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I26">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J26">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N26">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O26">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P26">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q26">
-        <v>305.3280801172915</v>
+        <v>24.71697068943666</v>
       </c>
       <c r="R26">
-        <v>305.3280801172915</v>
+        <v>222.45273620493</v>
       </c>
       <c r="S26">
-        <v>0.01529972905937864</v>
+        <v>0.0009770828667854373</v>
       </c>
       <c r="T26">
-        <v>0.01529972905937864</v>
+        <v>0.000977082866785437</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H27">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I27">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J27">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N27">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O27">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P27">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q27">
-        <v>1729.498038541232</v>
+        <v>73.12134371921866</v>
       </c>
       <c r="R27">
-        <v>1729.498038541232</v>
+        <v>658.092093472968</v>
       </c>
       <c r="S27">
-        <v>0.08666366810495363</v>
+        <v>0.00289054888813342</v>
       </c>
       <c r="T27">
-        <v>0.08666366810495363</v>
+        <v>0.00289054888813342</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H28">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I28">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J28">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N28">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O28">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P28">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q28">
-        <v>137.0724883975076</v>
+        <v>6.508085985067332</v>
       </c>
       <c r="R28">
-        <v>137.0724883975076</v>
+        <v>58.572773865606</v>
       </c>
       <c r="S28">
-        <v>0.006868585205694351</v>
+        <v>0.0002572701724444471</v>
       </c>
       <c r="T28">
-        <v>0.006868585205694351</v>
+        <v>0.0002572701724444471</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H29">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I29">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J29">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N29">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O29">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P29">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q29">
-        <v>199.3988617106372</v>
+        <v>8.535883320682665</v>
       </c>
       <c r="R29">
-        <v>199.3988617106372</v>
+        <v>76.82294988614399</v>
       </c>
       <c r="S29">
-        <v>0.009991706487491476</v>
+        <v>0.0003374307252418683</v>
       </c>
       <c r="T29">
-        <v>0.009991706487491476</v>
+        <v>0.0003374307252418683</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H30">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I30">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J30">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N30">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O30">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P30">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q30">
-        <v>44.27371638220299</v>
+        <v>1.871363258534</v>
       </c>
       <c r="R30">
-        <v>44.27371638220299</v>
+        <v>16.842269326806</v>
       </c>
       <c r="S30">
-        <v>0.002218518076815162</v>
+        <v>7.397658072341274E-05</v>
       </c>
       <c r="T30">
-        <v>0.002218518076815162</v>
+        <v>7.397658072341274E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.489874</v>
+      </c>
+      <c r="H31">
+        <v>1.469622</v>
+      </c>
+      <c r="I31">
+        <v>0.005143428747268084</v>
+      </c>
+      <c r="J31">
+        <v>0.005143428747268084</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N31">
+        <v>94.053487</v>
+      </c>
+      <c r="O31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q31">
+        <v>15.35811929687933</v>
+      </c>
+      <c r="R31">
+        <v>138.223073671914</v>
+      </c>
+      <c r="S31">
+        <v>0.0006071195139394978</v>
+      </c>
+      <c r="T31">
+        <v>0.0006071195139394979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.234361</v>
+      </c>
+      <c r="H32">
+        <v>39.703083</v>
+      </c>
+      <c r="I32">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J32">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N32">
+        <v>151.367315</v>
+      </c>
+      <c r="O32">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P32">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q32">
+        <v>667.7498967702383</v>
+      </c>
+      <c r="R32">
+        <v>6009.749070932145</v>
+      </c>
+      <c r="S32">
+        <v>0.0263967211690218</v>
+      </c>
+      <c r="T32">
+        <v>0.0263967211690218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.234361</v>
+      </c>
+      <c r="H33">
+        <v>39.703083</v>
+      </c>
+      <c r="I33">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J33">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N33">
+        <v>447.796844</v>
+      </c>
+      <c r="O33">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P33">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q33">
+        <v>1975.435029385561</v>
+      </c>
+      <c r="R33">
+        <v>17778.91526447005</v>
+      </c>
+      <c r="S33">
+        <v>0.07809062631147255</v>
+      </c>
+      <c r="T33">
+        <v>0.07809062631147254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.234361</v>
+      </c>
+      <c r="H34">
+        <v>39.703083</v>
+      </c>
+      <c r="I34">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J34">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N34">
+        <v>39.855673</v>
+      </c>
+      <c r="O34">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P34">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q34">
+        <v>175.8214547933177</v>
+      </c>
+      <c r="R34">
+        <v>1582.393093139859</v>
+      </c>
+      <c r="S34">
+        <v>0.006950371598945985</v>
+      </c>
+      <c r="T34">
+        <v>0.006950371598945984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.234361</v>
+      </c>
+      <c r="H35">
+        <v>39.703083</v>
+      </c>
+      <c r="I35">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J35">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N35">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O35">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P35">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q35">
+        <v>230.6041172215573</v>
+      </c>
+      <c r="R35">
+        <v>2075.437054994016</v>
+      </c>
+      <c r="S35">
+        <v>0.009115976823311093</v>
+      </c>
+      <c r="T35">
+        <v>0.009115976823311091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>11.6654212685727</v>
-      </c>
-      <c r="H31">
-        <v>11.6654212685727</v>
-      </c>
-      <c r="I31">
-        <v>0.1374309615555001</v>
-      </c>
-      <c r="J31">
-        <v>0.1374309615555001</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="N31">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="O31">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="P31">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="Q31">
-        <v>327.0611502055903</v>
-      </c>
-      <c r="R31">
-        <v>327.0611502055903</v>
-      </c>
-      <c r="S31">
-        <v>0.01638875462116688</v>
-      </c>
-      <c r="T31">
-        <v>0.01638875462116688</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.234361</v>
+      </c>
+      <c r="H36">
+        <v>39.703083</v>
+      </c>
+      <c r="I36">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J36">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.820091</v>
+      </c>
+      <c r="N36">
+        <v>11.460273</v>
+      </c>
+      <c r="O36">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P36">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q36">
+        <v>50.556463346851</v>
+      </c>
+      <c r="R36">
+        <v>455.008170121659</v>
+      </c>
+      <c r="S36">
+        <v>0.001998539981381509</v>
+      </c>
+      <c r="T36">
+        <v>0.001998539981381509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.234361</v>
+      </c>
+      <c r="H37">
+        <v>39.703083</v>
+      </c>
+      <c r="I37">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J37">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N37">
+        <v>94.053487</v>
+      </c>
+      <c r="O37">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P37">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q37">
+        <v>414.9126000889357</v>
+      </c>
+      <c r="R37">
+        <v>3734.213400800421</v>
+      </c>
+      <c r="S37">
+        <v>0.01640184785806115</v>
+      </c>
+      <c r="T37">
+        <v>0.01640184785806115</v>
       </c>
     </row>
   </sheetData>
